--- a/FIP/Tarea FIP excels/TareaConTicket(Ian Bertoni).xlsx
+++ b/FIP/Tarea FIP excels/TareaConTicket(Ian Bertoni).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markinhos\Desktop\Tarea FIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\hola-Mundo\FIP\Tarea FIP excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E6B7B2-B857-4BAE-BCD2-B39B7DF77CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6D611-4DCE-49F2-B6FC-5F7F49A933CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{907065BE-A549-4053-B5BA-68F4D7793038}"/>
   </bookViews>
@@ -1079,24 +1079,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,29 +1102,60 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1167,8 +1180,6 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1184,17 +1195,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Énfasis1" xfId="6" builtinId="32"/>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,8 +3268,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,58 +3288,58 @@
         <v>60</v>
       </c>
       <c r="E1" s="28"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="59" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="28"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="27"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="63" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
@@ -3379,10 +3379,10 @@
       <c r="G7" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,11 +3398,11 @@
       <c r="G8" s="31">
         <v>1183</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="55">
         <f t="shared" ref="H8:H17" si="0">G8 * F8</f>
         <v>4732</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="33"/>
       <c r="K8" t="s">
         <v>79</v>
@@ -3593,48 +3593,48 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" s="23"/>
@@ -3655,6 +3655,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -3671,14 +3679,6 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3704,7 +3704,7 @@
   <dimension ref="D1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D26" sqref="D26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,62 +3719,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="87" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="88"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="90"/>
+      <c r="I2" s="95"/>
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="91" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="4:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="4:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="4:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="38" t="s">
@@ -3809,10 +3809,10 @@
       <c r="G7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="94"/>
+      <c r="I7" s="73"/>
       <c r="N7" t="s">
         <v>85</v>
       </c>
@@ -3830,11 +3830,11 @@
       <c r="G8" s="41">
         <v>1183</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="71">
         <f t="shared" ref="H8:H17" si="0">G8 * F8</f>
         <v>4732</v>
       </c>
-      <c r="I8" s="86"/>
+      <c r="I8" s="71"/>
       <c r="N8" t="s">
         <v>86</v>
       </c>
@@ -3852,11 +3852,11 @@
       <c r="G9" s="41">
         <v>1803</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="71">
         <f t="shared" si="0"/>
         <v>5409</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="71"/>
       <c r="N9" t="s">
         <v>87</v>
       </c>
@@ -3874,11 +3874,11 @@
       <c r="G10" s="41">
         <v>2243</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="71">
         <f t="shared" si="0"/>
         <v>4486</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="40">
@@ -3893,11 +3893,11 @@
       <c r="G11" s="41">
         <v>988</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="71">
         <f t="shared" si="0"/>
         <v>5928</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" s="40">
@@ -3912,11 +3912,11 @@
       <c r="G12" s="41">
         <v>1078</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="71">
         <f t="shared" si="0"/>
         <v>1078</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13" s="40">
@@ -3931,11 +3931,11 @@
       <c r="G13" s="41">
         <v>300</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="71">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D14" s="40">
@@ -3950,11 +3950,11 @@
       <c r="G14" s="41">
         <v>1146</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="71">
         <f t="shared" si="0"/>
         <v>1146</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D15" s="40">
@@ -3969,11 +3969,11 @@
       <c r="G15" s="41">
         <v>1313</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="71">
         <f t="shared" si="0"/>
         <v>1313</v>
       </c>
-      <c r="I15" s="86"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D16" s="40">
@@ -3988,11 +3988,11 @@
       <c r="G16" s="41">
         <v>1298</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="71">
         <f t="shared" si="0"/>
         <v>3894</v>
       </c>
-      <c r="I16" s="86"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="40">
@@ -4007,59 +4007,59 @@
       <c r="G17" s="41">
         <v>2277</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="71">
         <f t="shared" si="0"/>
         <v>2277</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="40"/>
@@ -4068,17 +4068,17 @@
       <c r="G24" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="86">
+      <c r="H24" s="71">
         <f>SUM(H8:H17)</f>
         <v>31463</v>
       </c>
-      <c r="I24" s="86"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="96"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="41" t="str" cm="1">
         <f t="array" ref="F25">[1]!NumLetras(H24, "CON", "PESOS")</f>
         <v xml:space="preserve"> TREINTA Y UN MIL CUATROCIENTOS SESENTA Y TRES 00/100 PESOS</v>
@@ -4088,33 +4088,52 @@
       <c r="I25" s="40"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="83"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="84"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E26:I28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -4126,25 +4145,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E26:I28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6" xr:uid="{4A86E448-76D6-4660-A60C-EB8283989E84}">
